--- a/Excel/JiaYuanPastureConfig.xlsx
+++ b/Excel/JiaYuanPastureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E891933E-B13B-4D69-BD4F-53F1DA433C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5AF09-BA5A-48BF-9971-24E0D9703375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanPastureProto" sheetId="1" r:id="rId1"/>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>14400;43200;129600;172800</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落概率</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -323,6 +319,9 @@
   <si>
     <t>人口数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14400,43200,129600,172800</t>
   </si>
 </sst>
 </file>
@@ -1608,13 +1607,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2264,7 +2263,7 @@
   <dimension ref="C1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2298,31 +2297,31 @@
         <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2339,31 +2338,31 @@
         <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2383,7 +2382,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>1</v>
@@ -2392,13 +2391,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>3</v>
@@ -2414,14 +2413,14 @@
       <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="9">
         <v>100000</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H6" s="9">
         <v>5</v>
@@ -2442,10 +2441,10 @@
         <v>44000001</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,15 +2454,15 @@
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
       <c r="F7" s="9">
         <f>F6+30000</f>
         <v>130000</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
+      <c r="G7" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H7" s="9">
         <v>10</v>
@@ -2484,10 +2483,10 @@
         <v>44000002</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2497,15 +2496,15 @@
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>3</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" ref="F8" si="0">F7+30000</f>
         <v>160000</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H8" s="9">
         <v>15</v>
@@ -2526,10 +2525,10 @@
         <v>44000003</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2539,15 +2538,15 @@
       <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="9">
         <v>4</v>
       </c>
       <c r="F9" s="9">
         <f>F8+40000</f>
         <v>200000</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
+      <c r="G9" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H9" s="9">
         <v>20</v>
@@ -2568,10 +2567,10 @@
         <v>44000004</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,15 +2580,15 @@
       <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>5</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" ref="F10:F12" si="1">F9+40000</f>
         <v>240000</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
+      <c r="G10" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H10" s="9">
         <v>25</v>
@@ -2610,10 +2609,10 @@
         <v>44000005</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2623,15 +2622,15 @@
       <c r="D11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <v>6</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>280000</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
+      <c r="G11" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H11" s="9">
         <v>30</v>
@@ -2652,10 +2651,10 @@
         <v>44000006</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,15 +2664,15 @@
       <c r="D12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="9">
         <v>7</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="1"/>
         <v>320000</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>22</v>
+      <c r="G12" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H12" s="9">
         <v>35</v>
@@ -2694,10 +2693,10 @@
         <v>44000007</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2707,15 +2706,15 @@
       <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <v>8</v>
       </c>
       <c r="F13" s="9">
         <f>F12+50000</f>
         <v>370000</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
+      <c r="G13" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H13" s="9">
         <v>40</v>
@@ -2736,10 +2735,10 @@
         <v>44000008</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2749,15 +2748,15 @@
       <c r="D14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="9">
         <v>9</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" ref="F14" si="2">F13+50000</f>
         <v>420000</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
+      <c r="G14" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H14" s="9">
         <v>45</v>
@@ -2778,10 +2777,10 @@
         <v>44000009</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2791,15 +2790,15 @@
       <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="9">
         <v>10</v>
       </c>
       <c r="F15" s="9">
         <f>F14+60000</f>
         <v>480000</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>22</v>
+      <c r="G15" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H15" s="9">
         <v>50</v>
@@ -2820,10 +2819,10 @@
         <v>44000010</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,15 +2832,15 @@
       <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="9">
         <v>11</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16" si="3">F15+60000</f>
         <v>540000</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>22</v>
+      <c r="G16" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="9">
         <v>50</v>
@@ -2862,10 +2861,10 @@
         <v>44000011</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2875,15 +2874,15 @@
       <c r="D17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="9">
         <v>12</v>
       </c>
       <c r="F17" s="9">
         <f>F16+70000</f>
         <v>610000</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>22</v>
+      <c r="G17" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="H17" s="9">
         <v>50</v>
@@ -2904,10 +2903,10 @@
         <v>44000012</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.2">

--- a/Excel/JiaYuanPastureConfig.xlsx
+++ b/Excel/JiaYuanPastureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5AF09-BA5A-48BF-9971-24E0D9703375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D6745-B451-4BEA-BBCE-134685691C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanPastureProto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{874F2130-3ADA-411C-A78F-71CE4E6A1D1E}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{874F2130-3ADA-411C-A78F-71CE4E6A1D1E}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{2D59419F-9BC0-4EF7-ADBE-5C8FAEB50357}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{2D59419F-9BC0-4EF7-ADBE-5C8FAEB50357}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -145,21 +145,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>升级经验</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Lv</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Exp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鸡</t>
-  </si>
-  <si>
     <t>鸭子</t>
   </si>
   <si>
@@ -169,28 +158,10 @@
     <t>兔子</t>
   </si>
   <si>
-    <t>猫</t>
-  </si>
-  <si>
     <t>猪</t>
   </si>
   <si>
-    <t>公牛</t>
-  </si>
-  <si>
-    <t>绵羊</t>
-  </si>
-  <si>
-    <t>野猪</t>
-  </si>
-  <si>
     <t>奶牛</t>
-  </si>
-  <si>
-    <t>山羊</t>
-  </si>
-  <si>
-    <t>马</t>
   </si>
   <si>
     <t>int[]</t>
@@ -237,18 +208,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>我的牙齿可是很坚的喔~</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>别挤了,我真的没奶了!</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>我想变成一只战斗山羊</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>我们来比赛赛跑吧?</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -321,7 +280,104 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>14400,43200,129600,172800</t>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>小猫</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>驴</t>
+  </si>
+  <si>
+    <t>鸵鸟</t>
+  </si>
+  <si>
+    <t>骆驼</t>
+  </si>
+  <si>
+    <t>12960,32400,77760,155520</t>
+  </si>
+  <si>
+    <t>16200,40500,97200,194400</t>
+  </si>
+  <si>
+    <t>19440,48600,116640,233280</t>
+  </si>
+  <si>
+    <t>22680,56700,136080,272160</t>
+  </si>
+  <si>
+    <t>25920,64800,155520,311040</t>
+  </si>
+  <si>
+    <t>29160,72900,174960,349920</t>
+  </si>
+  <si>
+    <t>32400,81000,194400,388800</t>
+  </si>
+  <si>
+    <t>35640,89100,213840,427680</t>
+  </si>
+  <si>
+    <t>38880,97200,233280,466560</t>
+  </si>
+  <si>
+    <t>42120,105300,252720,505440</t>
+  </si>
+  <si>
+    <t>45360,113400,272160,544320</t>
+  </si>
+  <si>
+    <t>48600,121500,291600,583200</t>
+  </si>
+  <si>
+    <t>我们产的牛奶可远销很多地方喔</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不渴,我还可以走很久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买家园限制</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyJiaYuanLv</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买家园权重</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyJiaYuanPro</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你看到哪里有骨头嘛</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天都是这样过，不知道下一顿是不是该吃我了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的草地太小了,我想出去看看</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,7 +478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +581,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14947965941343425"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -631,17 +693,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="hair">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1576,7 +1627,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1603,17 +1654,13 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="314" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="17" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="17" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2260,30 +2307,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:O19"/>
+  <dimension ref="C1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="14" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="4" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="13" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G1"/>
+    <row r="1" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1"/>
+      <c r="H1"/>
       <c r="I1"/>
-      <c r="J1"/>
-      <c r="M1"/>
+      <c r="L1"/>
     </row>
-    <row r="2" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2294,37 +2342,40 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,40 +2383,43 @@
         <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2376,542 +2430,674 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>1</v>
+      <c r="J5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>3</v>
+      <c r="O5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>10001</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
-        <v>100000</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="9">
-        <v>5</v>
-      </c>
-      <c r="I6" s="12">
-        <v>800</v>
-      </c>
-      <c r="J6" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K6" s="12">
-        <v>7200</v>
+      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>900</v>
+      </c>
+      <c r="I6" s="10">
+        <f>H6/2</f>
+        <v>450</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2880.0000000000005</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.25</v>
       </c>
       <c r="L6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="12">
-        <v>44000001</v>
+        <v>10035001</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>10002</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
-        <f>F6+30000</f>
-        <v>130000</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="9">
-        <v>10</v>
-      </c>
-      <c r="I7" s="12">
-        <v>800</v>
-      </c>
-      <c r="J7" s="12">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="12">
-        <v>44000002</v>
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1350</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I19" si="0">H7/2</f>
+        <v>675</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3600</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L7" s="12">
+        <v>10035002</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="O7" s="10">
+        <v>2</v>
+      </c>
+      <c r="P7" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
         <v>10003</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" ref="F8" si="0">F7+30000</f>
-        <v>160000</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="9">
-        <v>15</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="12">
-        <v>2200</v>
-      </c>
-      <c r="K8" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="12">
-        <v>44000003</v>
+      <c r="F8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1800</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4319.9999999999991</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L8" s="12">
+        <v>10035003</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="O8" s="10">
+        <v>3</v>
+      </c>
+      <c r="P8" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>10004</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="9">
-        <f>F8+40000</f>
-        <v>200000</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="9">
-        <v>20</v>
-      </c>
-      <c r="I9" s="12">
-        <v>2600</v>
-      </c>
-      <c r="J9" s="12">
-        <v>5200</v>
-      </c>
-      <c r="K9" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L9" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="12">
-        <v>44000004</v>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4500</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5039.9999999999991</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="12">
+        <v>10035004</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="O9" s="10">
+        <v>5</v>
+      </c>
+      <c r="P9" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>10005</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" ref="F10:F12" si="1">F9+40000</f>
-        <v>240000</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="9">
-        <v>25</v>
-      </c>
-      <c r="I10" s="12">
-        <v>3100</v>
-      </c>
-      <c r="J10" s="12">
-        <v>5600</v>
-      </c>
-      <c r="K10" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L10" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="12">
-        <v>44000005</v>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>5400</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>2700</v>
+      </c>
+      <c r="J10" s="10">
+        <v>5760.0000000000009</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="12">
+        <v>10035005</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="O10" s="10">
+        <v>7</v>
+      </c>
+      <c r="P10" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <v>10006</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E11" s="9">
         <v>6</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>280000</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="9">
-        <v>30</v>
-      </c>
-      <c r="I11" s="12">
-        <v>3600</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="F11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2</v>
+      </c>
+      <c r="H11" s="10">
         <v>6000</v>
       </c>
-      <c r="K11" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="12">
-        <v>44000006</v>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J11" s="10">
+        <v>6480</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L11" s="12">
+        <v>10035006</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="O11" s="10">
+        <v>9</v>
+      </c>
+      <c r="P11" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>10007</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9">
         <v>7</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>320000</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="9">
-        <v>35</v>
-      </c>
-      <c r="I12" s="12">
-        <v>6800</v>
-      </c>
-      <c r="J12" s="12">
-        <v>10400</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="F12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10350</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>5175</v>
+      </c>
+      <c r="J12" s="10">
         <v>7200</v>
       </c>
-      <c r="L12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="12">
-        <v>44000007</v>
+      <c r="K12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L12" s="12">
+        <v>10035007</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="O12" s="10">
+        <v>11</v>
+      </c>
+      <c r="P12" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>10008</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="9">
-        <f>F12+50000</f>
-        <v>370000</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="9">
-        <v>40</v>
-      </c>
-      <c r="I13" s="12">
-        <v>7800</v>
-      </c>
-      <c r="J13" s="12">
-        <v>11200</v>
-      </c>
-      <c r="K13" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L13" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="12">
-        <v>44000008</v>
+      <c r="F13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>11700</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>5850</v>
+      </c>
+      <c r="J13" s="10">
+        <v>7920.0000000000009</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="12">
+        <v>10035008</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="O13" s="10">
+        <v>13</v>
+      </c>
+      <c r="P13" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>10009</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9">
         <v>9</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" ref="F14" si="2">F13+50000</f>
-        <v>420000</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="9">
-        <v>45</v>
-      </c>
-      <c r="I14" s="12">
-        <v>12600</v>
-      </c>
-      <c r="J14" s="12">
-        <v>16800</v>
-      </c>
-      <c r="K14" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L14" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="12">
-        <v>44000009</v>
+      <c r="F14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10">
+        <v>13500</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="J14" s="10">
+        <v>7920.0000000000009</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L14" s="12">
+        <v>10035009</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="O14" s="10">
+        <v>15</v>
+      </c>
+      <c r="P14" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>10010</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E15" s="9">
         <v>10</v>
       </c>
-      <c r="F15" s="9">
-        <f>F14+60000</f>
-        <v>480000</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="9">
-        <v>50</v>
-      </c>
-      <c r="I15" s="12">
-        <v>14400</v>
-      </c>
-      <c r="J15" s="12">
-        <v>18000</v>
-      </c>
-      <c r="K15" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="12">
-        <v>44000010</v>
+      <c r="F15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3</v>
+      </c>
+      <c r="H15" s="10">
+        <v>15300</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>7650</v>
+      </c>
+      <c r="J15" s="10">
+        <v>8639.9999999999982</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L15" s="12">
+        <v>10035010</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="O15" s="10">
+        <v>17</v>
+      </c>
+      <c r="P15" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <v>10011</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9">
         <v>11</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" ref="F16" si="3">F15+60000</f>
-        <v>540000</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="9">
-        <v>50</v>
-      </c>
-      <c r="I16" s="12">
-        <v>19800</v>
-      </c>
-      <c r="J16" s="12">
-        <v>24800</v>
-      </c>
-      <c r="K16" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="12">
-        <v>44000011</v>
+      <c r="F16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>22800</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>11400</v>
+      </c>
+      <c r="J16" s="10">
+        <v>8639.9999999999982</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L16" s="12">
+        <v>10035011</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="O16" s="10">
+        <v>19</v>
+      </c>
+      <c r="P16" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <v>10012</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E17" s="9">
         <v>12</v>
       </c>
-      <c r="F17" s="9">
-        <f>F16+70000</f>
-        <v>610000</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="9">
-        <v>50</v>
-      </c>
-      <c r="I17" s="12">
-        <v>20800</v>
-      </c>
-      <c r="J17" s="12">
-        <v>26000</v>
-      </c>
-      <c r="K17" s="12">
-        <v>7200</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="12">
-        <v>44000012</v>
+      <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4</v>
+      </c>
+      <c r="H17" s="10">
+        <v>25200</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+      <c r="J17" s="10">
+        <v>9360.0000000000018</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="12">
+        <v>10035012</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="O17" s="10">
+        <v>21</v>
+      </c>
+      <c r="P17" s="10">
+        <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="K19" s="11"/>
+    <row r="18" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>10013</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="9">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4</v>
+      </c>
+      <c r="H18" s="10">
+        <v>27600</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>13800</v>
+      </c>
+      <c r="J18" s="10">
+        <v>10079.999999999998</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L18" s="12">
+        <v>10035013</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="10">
+        <v>23</v>
+      </c>
+      <c r="P18" s="10">
+        <v>100</v>
+      </c>
     </row>
+    <row r="19" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>10014</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="9">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4</v>
+      </c>
+      <c r="H19" s="10">
+        <v>30000</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="J19" s="10">
+        <v>10800</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L19" s="12">
+        <v>10035014</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="10">
+        <v>25</v>
+      </c>
+      <c r="P19" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/JiaYuanPastureConfig.xlsx
+++ b/Excel/JiaYuanPastureConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D6745-B451-4BEA-BBCE-134685691C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD2F41-51F6-4709-9B39-FE00F4CCEAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JiaYuanPastureProto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{874F2130-3ADA-411C-A78F-71CE4E6A1D1E}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{874F2130-3ADA-411C-A78F-71CE4E6A1D1E}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{2D59419F-9BC0-4EF7-ADBE-5C8FAEB50357}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{2D59419F-9BC0-4EF7-ADBE-5C8FAEB50357}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -304,9 +304,6 @@
     <t>骆驼</t>
   </si>
   <si>
-    <t>12960,32400,77760,155520</t>
-  </si>
-  <si>
     <t>16200,40500,97200,194400</t>
   </si>
   <si>
@@ -378,6 +375,22 @@
   <si>
     <t>这里的草地太小了,我想出去看看</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>12960,32400,77760,155520</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型资源</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2307,31 +2320,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P24"/>
+  <dimension ref="C1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="16" width="14" customWidth="1"/>
+    <col min="4" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1"/>
-      <c r="H1"/>
+    <row r="1" spans="3:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1"/>
       <c r="I1"/>
-      <c r="L1"/>
+      <c r="J1"/>
+      <c r="M1"/>
     </row>
-    <row r="2" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2342,40 +2355,43 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2386,40 +2402,43 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="P4" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2429,41 +2448,44 @@
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>65</v>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="6" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5">
         <v>10001</v>
       </c>
@@ -2473,42 +2495,45 @@
       <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="5">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="10">
         <v>900</v>
       </c>
-      <c r="I6" s="10">
-        <f>H6/2</f>
+      <c r="J6" s="10">
+        <f>I6/2</f>
         <v>450</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <v>2880.0000000000005</v>
       </c>
-      <c r="K6" s="10">
+      <c r="L6" s="10">
         <v>0.25</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>10035001</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="10">
         <v>1</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="5">
         <v>10002</v>
       </c>
@@ -2518,42 +2543,45 @@
       <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="5">
+        <v>10002</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I7" s="10">
         <v>1350</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" ref="I7:I19" si="0">H7/2</f>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J19" si="0">I7/2</f>
         <v>675</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <v>3600</v>
       </c>
-      <c r="K7" s="10">
+      <c r="L7" s="10">
         <v>0.25</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>10035002</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="10">
         <v>2</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5">
         <v>10003</v>
       </c>
@@ -2563,42 +2591,45 @@
       <c r="E8" s="9">
         <v>3</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="F8" s="5">
+        <v>10003</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
+      <c r="I8" s="10">
         <v>1800</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <v>4319.9999999999991</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L8" s="10">
         <v>0.25</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>10035003</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="10">
         <v>3</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5">
         <v>10004</v>
       </c>
@@ -2608,42 +2639,45 @@
       <c r="E9" s="9">
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="5">
+        <v>10004</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>4500</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>2250</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <v>5039.9999999999991</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>0.25</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <v>10035004</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="10">
         <v>5</v>
       </c>
-      <c r="P9" s="10">
+      <c r="Q9" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="5">
         <v>10005</v>
       </c>
@@ -2653,42 +2687,45 @@
       <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="F10" s="5">
+        <v>10005</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="10">
         <v>2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <v>5400</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>5760.0000000000009</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>0.25</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>10035005</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="10">
         <v>7</v>
       </c>
-      <c r="P10" s="10">
+      <c r="Q10" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5">
         <v>10006</v>
       </c>
@@ -2698,42 +2735,45 @@
       <c r="E11" s="9">
         <v>6</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="5">
+        <v>10006</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="I11" s="10">
         <v>6000</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>6480</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>0.25</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>10035006</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="N11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="10">
+        <v>67</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" s="10">
         <v>9</v>
       </c>
-      <c r="P11" s="10">
+      <c r="Q11" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5">
         <v>10007</v>
       </c>
@@ -2743,42 +2783,45 @@
       <c r="E12" s="9">
         <v>7</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="5">
+        <v>10007</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="10">
         <v>3</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>10350</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <f t="shared" si="0"/>
         <v>5175</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <v>7200</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>0.25</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>10035007</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="10">
         <v>11</v>
       </c>
-      <c r="P12" s="10">
+      <c r="Q12" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="5">
         <v>10008</v>
       </c>
@@ -2788,42 +2831,45 @@
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="10">
+      <c r="F13" s="5">
+        <v>10008</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="10">
         <v>3</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>11700</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>7920.0000000000009</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>0.25</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <v>10035008</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="10">
         <v>13</v>
       </c>
-      <c r="P13" s="10">
+      <c r="Q13" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5">
         <v>10009</v>
       </c>
@@ -2833,42 +2879,45 @@
       <c r="E14" s="9">
         <v>9</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="5">
+        <v>10009</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I14" s="10">
         <v>13500</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="10">
         <f t="shared" si="0"/>
         <v>6750</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>7920.0000000000009</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>0.25</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <v>10035009</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="10">
         <v>15</v>
       </c>
-      <c r="P14" s="10">
+      <c r="Q14" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5">
         <v>10010</v>
       </c>
@@ -2878,42 +2927,45 @@
       <c r="E15" s="9">
         <v>10</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="5">
+        <v>10010</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="10">
         <v>3</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>15300</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <f t="shared" si="0"/>
         <v>7650</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K15" s="10">
         <v>8639.9999999999982</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="10">
         <v>0.25</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <v>10035010</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="N15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O15" s="10">
+        <v>68</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="10">
         <v>17</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="5">
         <v>10011</v>
       </c>
@@ -2923,42 +2975,45 @@
       <c r="E16" s="9">
         <v>11</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="5">
+        <v>10011</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="10">
         <v>4</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I16" s="10">
         <v>22800</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J16" s="10">
         <f t="shared" si="0"/>
         <v>11400</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K16" s="10">
         <v>8639.9999999999982</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>0.25</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>10035011</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="N16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O16" s="10">
+        <v>69</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="10">
         <v>19</v>
       </c>
-      <c r="P16" s="10">
+      <c r="Q16" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5">
         <v>10012</v>
       </c>
@@ -2968,42 +3023,45 @@
       <c r="E17" s="9">
         <v>12</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F17" s="5">
+        <v>10012</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="10">
         <v>4</v>
       </c>
-      <c r="H17" s="10">
+      <c r="I17" s="10">
         <v>25200</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J17" s="10">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="10">
         <v>9360.0000000000018</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="10">
         <v>0.25</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>10035012</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="N17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="10">
+        <v>60</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="10">
         <v>21</v>
       </c>
-      <c r="P17" s="10">
+      <c r="Q17" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5">
         <v>10013</v>
       </c>
@@ -3013,42 +3071,45 @@
       <c r="E18" s="9">
         <v>13</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="5">
+        <v>10013</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="10">
         <v>4</v>
       </c>
-      <c r="H18" s="10">
+      <c r="I18" s="10">
         <v>27600</v>
       </c>
-      <c r="I18" s="10">
+      <c r="J18" s="10">
         <f t="shared" si="0"/>
         <v>13800</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="10">
         <v>10079.999999999998</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="10">
         <v>0.25</v>
       </c>
-      <c r="L18" s="12">
+      <c r="M18" s="12">
         <v>10035013</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="P18" s="10">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="5">
         <v>10014</v>
       </c>
@@ -3058,46 +3119,49 @@
       <c r="E19" s="9">
         <v>14</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="10">
+      <c r="F19" s="5">
+        <v>10014</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="10">
         <v>4</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I19" s="10">
         <v>30000</v>
       </c>
-      <c r="I19" s="10">
+      <c r="J19" s="10">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <v>10800</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="10">
         <v>0.25</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>10035014</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="N19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O19" s="10">
+        <v>61</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="10">
         <v>25</v>
       </c>
-      <c r="P19" s="10">
+      <c r="Q19" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="3:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/JiaYuanPastureConfig.xlsx
+++ b/Excel/JiaYuanPastureConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DD2F41-51F6-4709-9B39-FE00F4CCEAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FFE430-C593-4E1B-B933-625B68F1B507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2322,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2512,7 +2512,7 @@
         <v>450</v>
       </c>
       <c r="K6" s="10">
-        <v>2880.0000000000005</v>
+        <v>2160.0000000000005</v>
       </c>
       <c r="L6" s="10">
         <v>0.25</v>
@@ -2560,7 +2560,7 @@
         <v>675</v>
       </c>
       <c r="K7" s="10">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="L7" s="10">
         <v>0.25</v>
@@ -2608,7 +2608,7 @@
         <v>900</v>
       </c>
       <c r="K8" s="10">
-        <v>4319.9999999999991</v>
+        <v>3239.9999999999991</v>
       </c>
       <c r="L8" s="10">
         <v>0.25</v>
@@ -2656,7 +2656,7 @@
         <v>2250</v>
       </c>
       <c r="K9" s="10">
-        <v>5039.9999999999991</v>
+        <v>3779.9999999999991</v>
       </c>
       <c r="L9" s="10">
         <v>0.25</v>
@@ -2704,7 +2704,7 @@
         <v>2700</v>
       </c>
       <c r="K10" s="10">
-        <v>5760.0000000000009</v>
+        <v>4320.0000000000009</v>
       </c>
       <c r="L10" s="10">
         <v>0.25</v>
@@ -2752,7 +2752,7 @@
         <v>3000</v>
       </c>
       <c r="K11" s="10">
-        <v>6480</v>
+        <v>4860</v>
       </c>
       <c r="L11" s="10">
         <v>0.25</v>
@@ -2800,7 +2800,7 @@
         <v>5175</v>
       </c>
       <c r="K12" s="10">
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="L12" s="10">
         <v>0.25</v>
@@ -2848,7 +2848,7 @@
         <v>5850</v>
       </c>
       <c r="K13" s="10">
-        <v>7920.0000000000009</v>
+        <v>5940.0000000000009</v>
       </c>
       <c r="L13" s="10">
         <v>0.25</v>
@@ -2896,7 +2896,7 @@
         <v>6750</v>
       </c>
       <c r="K14" s="10">
-        <v>7920.0000000000009</v>
+        <v>5940.0000000000009</v>
       </c>
       <c r="L14" s="10">
         <v>0.25</v>
@@ -2944,7 +2944,7 @@
         <v>7650</v>
       </c>
       <c r="K15" s="10">
-        <v>8639.9999999999982</v>
+        <v>6479.9999999999982</v>
       </c>
       <c r="L15" s="10">
         <v>0.25</v>
@@ -2992,7 +2992,7 @@
         <v>11400</v>
       </c>
       <c r="K16" s="10">
-        <v>8639.9999999999982</v>
+        <v>6479.9999999999982</v>
       </c>
       <c r="L16" s="10">
         <v>0.25</v>
@@ -3040,7 +3040,7 @@
         <v>12600</v>
       </c>
       <c r="K17" s="10">
-        <v>9360.0000000000018</v>
+        <v>7020.0000000000018</v>
       </c>
       <c r="L17" s="10">
         <v>0.25</v>
@@ -3088,7 +3088,7 @@
         <v>13800</v>
       </c>
       <c r="K18" s="10">
-        <v>10079.999999999998</v>
+        <v>7559.9999999999982</v>
       </c>
       <c r="L18" s="10">
         <v>0.25</v>
@@ -3136,7 +3136,7 @@
         <v>15000</v>
       </c>
       <c r="K19" s="10">
-        <v>10800</v>
+        <v>8100</v>
       </c>
       <c r="L19" s="10">
         <v>0.25</v>

--- a/Excel/JiaYuanPastureConfig.xlsx
+++ b/Excel/JiaYuanPastureConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FFE430-C593-4E1B-B933-625B68F1B507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514726C-5EFD-4C93-8EAA-1734CF260136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>Id</t>
   </si>
@@ -322,21 +322,6 @@
     <t>32400,81000,194400,388800</t>
   </si>
   <si>
-    <t>35640,89100,213840,427680</t>
-  </si>
-  <si>
-    <t>38880,97200,233280,466560</t>
-  </si>
-  <si>
-    <t>42120,105300,252720,505440</t>
-  </si>
-  <si>
-    <t>45360,113400,272160,544320</t>
-  </si>
-  <si>
-    <t>48600,121500,291600,583200</t>
-  </si>
-  <si>
     <t>我们产的牛奶可远销很多地方喔</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -377,10 +362,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>12960,32400,77760,155520</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>模型资源</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -391,6 +372,30 @@
   <si>
     <t>string</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9720,24300,58320,116640</t>
+  </si>
+  <si>
+    <t>11340,28350,68040,136080</t>
+  </si>
+  <si>
+    <t>12960,32400,77760,155520</t>
+  </si>
+  <si>
+    <t>14580,36450,87480,174960</t>
+  </si>
+  <si>
+    <t>17820,44550,106920,213840</t>
+  </si>
+  <si>
+    <t>21060,52650,126360,252720</t>
+  </si>
+  <si>
+    <t>24300,60750,145800,291600</t>
+  </si>
+  <si>
+    <t>27540,68850,165240,330480</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2328,7 @@
   <dimension ref="C1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2355,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
@@ -2385,10 +2390,10 @@
         <v>34</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2402,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>37</v>
@@ -2432,10 +2437,10 @@
         <v>36</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2449,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
@@ -2479,10 +2484,10 @@
         <v>3</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2499,7 +2504,7 @@
         <v>10001</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -2547,7 +2552,7 @@
         <v>10002</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -2595,7 +2600,7 @@
         <v>10003</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -2643,7 +2648,7 @@
         <v>10004</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H9" s="10">
         <v>2</v>
@@ -2691,7 +2696,7 @@
         <v>10005</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H10" s="10">
         <v>2</v>
@@ -2739,7 +2744,7 @@
         <v>10006</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H11" s="10">
         <v>2</v>
@@ -2761,10 +2766,10 @@
         <v>10035006</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P11" s="10">
         <v>9</v>
@@ -2787,7 +2792,7 @@
         <v>10007</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H12" s="10">
         <v>3</v>
@@ -2835,7 +2840,7 @@
         <v>10008</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H13" s="10">
         <v>3</v>
@@ -2883,7 +2888,7 @@
         <v>10009</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H14" s="10">
         <v>3</v>
@@ -2931,7 +2936,7 @@
         <v>10010</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="H15" s="10">
         <v>3</v>
@@ -2953,10 +2958,10 @@
         <v>10035010</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P15" s="10">
         <v>17</v>
@@ -2979,7 +2984,7 @@
         <v>10011</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" s="10">
         <v>4</v>
@@ -3001,10 +3006,10 @@
         <v>10035011</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P16" s="10">
         <v>19</v>
@@ -3027,7 +3032,7 @@
         <v>10012</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H17" s="10">
         <v>4</v>
@@ -3049,10 +3054,10 @@
         <v>10035012</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P17" s="10">
         <v>21</v>
@@ -3075,7 +3080,7 @@
         <v>10013</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H18" s="10">
         <v>4</v>
@@ -3123,7 +3128,7 @@
         <v>10014</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H19" s="10">
         <v>4</v>
@@ -3145,10 +3150,10 @@
         <v>10035014</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P19" s="10">
         <v>25</v>
